--- a/기술사/PE/PE 공부 스케줄.xlsx
+++ b/기술사/PE/PE 공부 스케줄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docs\lwh\4. study\PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC31675-16B6-4315-8EF6-0BFFD8D24531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC1052-E430-46AC-9BFA-B7A52A4C0B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>Chapter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,11 +292,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8/13</t>
+    <t>8/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,22 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,26 +380,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,6,7,8,10,12,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,7,8,10,11,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NCEES Practice Problem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,6 +397,18 @@
   </si>
   <si>
     <t>63/80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 다시 풀어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,15,16,17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +429,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -484,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +535,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
@@ -924,7 +931,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="1">
@@ -942,7 +949,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -958,7 +965,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="1">
@@ -976,7 +983,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1">
         <v>18</v>
       </c>
@@ -992,7 +999,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1">
         <v>19</v>
       </c>
@@ -1008,7 +1015,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="1">
@@ -1026,7 +1033,7 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1">
         <v>21</v>
       </c>
@@ -1042,7 +1049,7 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="1">
@@ -1060,7 +1067,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1">
         <v>35</v>
       </c>
@@ -1076,7 +1083,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1">
         <v>36</v>
       </c>
@@ -1092,7 +1099,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1">
         <v>37</v>
       </c>
@@ -1108,7 +1115,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="1">
@@ -1126,7 +1133,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1">
         <v>41</v>
       </c>
@@ -1142,7 +1149,7 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1">
         <v>44</v>
       </c>
@@ -1158,7 +1165,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="3">
@@ -1168,16 +1175,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>63</v>
@@ -1186,7 +1193,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3">
         <v>46</v>
       </c>
@@ -1194,25 +1201,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3">
@@ -1228,19 +1235,19 @@
         <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3">
         <v>48</v>
       </c>
@@ -1248,25 +1255,25 @@
         <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3">
         <v>49</v>
       </c>
@@ -1274,13 +1281,13 @@
         <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>59</v>
@@ -1292,7 +1299,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3">
         <v>50</v>
       </c>
@@ -1300,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>63</v>
@@ -1318,7 +1325,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3">
         <v>51</v>
       </c>
@@ -1326,25 +1333,25 @@
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="3">
         <v>52</v>
       </c>
@@ -1352,25 +1359,25 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>93</v>
+      <c r="I24" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="3">
@@ -1386,19 +1393,19 @@
         <v>59</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>95</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3">
         <v>54</v>
       </c>
@@ -1408,17 +1415,23 @@
       <c r="E26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
+      <c r="F26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3">
         <v>55</v>
       </c>
@@ -1428,17 +1441,21 @@
       <c r="E27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>60</v>
+      <c r="F27" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="3">
@@ -1459,14 +1476,14 @@
       <c r="H28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="8">
-        <v>17</v>
+      <c r="I28" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3">
         <v>57</v>
       </c>
@@ -1483,14 +1500,16 @@
         <v>65</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3">
         <v>58</v>
       </c>
@@ -1507,16 +1526,16 @@
         <v>66</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3">
         <v>59</v>
       </c>
@@ -1530,19 +1549,19 @@
         <v>59</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="3">
         <v>60</v>
       </c>
@@ -1550,25 +1569,25 @@
         <v>26</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I32" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="3">
@@ -1578,25 +1597,25 @@
         <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="3">
         <v>62</v>
       </c>
@@ -1612,7 +1631,7 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="3">
@@ -1630,7 +1649,7 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="3">
         <v>64</v>
       </c>
@@ -1646,7 +1665,7 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="3">
         <v>65</v>
       </c>
@@ -1662,7 +1681,7 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="3">
         <v>66</v>
       </c>
@@ -1678,7 +1697,7 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="1">
         <v>69</v>
       </c>
@@ -1694,7 +1713,7 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="1">
         <v>70</v>
       </c>
@@ -1710,7 +1729,7 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="1">
         <v>72</v>
       </c>
@@ -1726,7 +1745,7 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="1">
         <v>73</v>
       </c>
@@ -1763,14 +1782,14 @@
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>60</v>
@@ -1783,7 +1802,7 @@
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1795,17 +1814,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B35:B42"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
